--- a/biology/Zoologie/Caligo_suzanna/Caligo_suzanna.xlsx
+++ b/biology/Zoologie/Caligo_suzanna/Caligo_suzanna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caligo suzanna  est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Morphinae, de la tribu des Brassolini, et du genre Caligo.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Caligo suzanna  a été décrit par le naturaliste français Achille Deyrolle en 1872 sous le nom initial de Pavonia suzanna[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Caligo suzanna  a été décrit par le naturaliste français Achille Deyrolle en 1872 sous le nom initial de Pavonia suzanna.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait partie du groupe du Caligo eurilochus.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Caligo suzanna  présente des ailes antérieures à bord costal bombé et bord externe concave. Le dessus est bleu marine très foncé avec aux ailes antérieures une bande postdiscale plus claire.
 Le revers est marron marbré d'ocre doré, avec un très gros ocelle noir cerclé de jaune sur chaque aile postérieure mimant les yeux d'un hibou ou d'une grenouille arboricole.
@@ -602,12 +620,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caligo suzanna est présent en Colombie.
+</t>
         </is>
       </c>
     </row>
@@ -637,10 +658,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caligo suzanna est présent en Colombie[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Caligo suzanna, sur Wikimedia CommonsCaligo suzanna, sur Wikispecies
 </t>
